--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD7E5FA-E378-4121-B775-C714BFFF3E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509AA54-AE98-4415-9ED0-622273A74C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6B444D6D-D6B6-44FD-85CA-113F54902FC9}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{6B444D6D-D6B6-44FD-85CA-113F54902FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +181,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -195,6 +193,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,15 +230,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,48 +578,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024E5BBB-B650-4049-BB4C-B8379D07B282}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="3">
         <f>15.63629+252.517977</f>
         <v>268.154267</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="3">
@@ -613,34 +628,34 @@
         <v>20629.107760310002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="3">
         <v>186.1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="3">
         <f>483.1+265.2+3593.6</f>
         <v>4341.8999999999996</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="3">
@@ -648,13 +663,13 @@
         <v>24784.907760310001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -671,68 +686,69 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="P19:R19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -798,30 +814,30 @@
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6">
         <v>6350.5</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="6">
         <v>6662.2</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="6">
         <v>6723.7</v>
       </c>
       <c r="S4" s="3"/>
@@ -873,8 +889,8 @@
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3"/>
@@ -948,8 +964,8 @@
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3"/>
@@ -1026,8 +1042,8 @@
       <c r="BM6" s="3"/>
       <c r="BN6" s="3"/>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3"/>
@@ -1101,8 +1117,8 @@
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="3"/>
@@ -1176,8 +1192,8 @@
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="3"/>
@@ -1251,8 +1267,8 @@
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3"/>
@@ -1329,8 +1345,8 @@
       <c r="BM10" s="3"/>
       <c r="BN10" s="3"/>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="3"/>
@@ -1404,8 +1420,8 @@
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="3"/>
@@ -1479,8 +1495,8 @@
       <c r="BM12" s="3"/>
       <c r="BN12" s="3"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="3"/>
@@ -1560,8 +1576,8 @@
       <c r="BM13" s="3"/>
       <c r="BN13" s="3"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="3"/>
@@ -1635,8 +1651,8 @@
       <c r="BM14" s="3"/>
       <c r="BN14" s="3"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3"/>
@@ -1713,8 +1729,8 @@
       <c r="BM15" s="3"/>
       <c r="BN15" s="3"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="3"/>
@@ -1788,8 +1804,8 @@
       <c r="BM16" s="3"/>
       <c r="BN16" s="3"/>
     </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="3"/>
@@ -1866,7 +1882,7 @@
       <c r="BM17" s="3"/>
       <c r="BN17" s="3"/>
     </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1932,8 +1948,8 @@
       <c r="BM18" s="3"/>
       <c r="BN18" s="3"/>
     </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="3"/>
@@ -1949,15 +1965,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="2">
+      <c r="P19" s="7">
         <f t="shared" ref="P19:Q19" si="2">+P17/P20</f>
         <v>2.5428784489187173</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="7">
         <f t="shared" si="2"/>
         <v>2.535767511177347</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="7">
         <f>+R17/R20</f>
         <v>2.9366852886405961</v>
       </c>
@@ -2010,8 +2026,8 @@
       <c r="BM19" s="3"/>
       <c r="BN19" s="3"/>
     </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
@@ -2085,7 +2101,7 @@
       <c r="BM20" s="3"/>
       <c r="BN20" s="3"/>
     </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2151,7 +2167,7 @@
       <c r="BM21" s="3"/>
       <c r="BN21" s="3"/>
     </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2217,7 +2233,7 @@
       <c r="BM22" s="3"/>
       <c r="BN22" s="3"/>
     </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2283,7 +2299,7 @@
       <c r="BM23" s="3"/>
       <c r="BN23" s="3"/>
     </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2349,7 +2365,7 @@
       <c r="BM24" s="3"/>
       <c r="BN24" s="3"/>
     </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2415,7 +2431,7 @@
       <c r="BM25" s="3"/>
       <c r="BN25" s="3"/>
     </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2481,7 +2497,7 @@
       <c r="BM26" s="3"/>
       <c r="BN26" s="3"/>
     </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2547,7 +2563,7 @@
       <c r="BM27" s="3"/>
       <c r="BN27" s="3"/>
     </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2613,7 +2629,7 @@
       <c r="BM28" s="3"/>
       <c r="BN28" s="3"/>
     </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2679,7 +2695,7 @@
       <c r="BM29" s="3"/>
       <c r="BN29" s="3"/>
     </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2745,7 +2761,7 @@
       <c r="BM30" s="3"/>
       <c r="BN30" s="3"/>
     </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2811,7 +2827,7 @@
       <c r="BM31" s="3"/>
       <c r="BN31" s="3"/>
     </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2877,7 +2893,7 @@
       <c r="BM32" s="3"/>
       <c r="BN32" s="3"/>
     </row>
-    <row r="33" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2943,7 +2959,7 @@
       <c r="BM33" s="3"/>
       <c r="BN33" s="3"/>
     </row>
-    <row r="34" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3009,7 +3025,7 @@
       <c r="BM34" s="3"/>
       <c r="BN34" s="3"/>
     </row>
-    <row r="35" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3075,7 +3091,7 @@
       <c r="BM35" s="3"/>
       <c r="BN35" s="3"/>
     </row>
-    <row r="36" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3141,7 +3157,7 @@
       <c r="BM36" s="3"/>
       <c r="BN36" s="3"/>
     </row>
-    <row r="37" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3207,7 +3223,7 @@
       <c r="BM37" s="3"/>
       <c r="BN37" s="3"/>
     </row>
-    <row r="38" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3273,7 +3289,7 @@
       <c r="BM38" s="3"/>
       <c r="BN38" s="3"/>
     </row>
-    <row r="39" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3339,7 +3355,7 @@
       <c r="BM39" s="3"/>
       <c r="BN39" s="3"/>
     </row>
-    <row r="40" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3405,7 +3421,7 @@
       <c r="BM40" s="3"/>
       <c r="BN40" s="3"/>
     </row>
-    <row r="41" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3471,7 +3487,7 @@
       <c r="BM41" s="3"/>
       <c r="BN41" s="3"/>
     </row>
-    <row r="42" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3537,7 +3553,7 @@
       <c r="BM42" s="3"/>
       <c r="BN42" s="3"/>
     </row>
-    <row r="43" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3603,7 +3619,7 @@
       <c r="BM43" s="3"/>
       <c r="BN43" s="3"/>
     </row>
-    <row r="44" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3669,7 +3685,7 @@
       <c r="BM44" s="3"/>
       <c r="BN44" s="3"/>
     </row>
-    <row r="45" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3735,7 +3751,7 @@
       <c r="BM45" s="3"/>
       <c r="BN45" s="3"/>
     </row>
-    <row r="46" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3801,7 +3817,7 @@
       <c r="BM46" s="3"/>
       <c r="BN46" s="3"/>
     </row>
-    <row r="47" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3867,7 +3883,7 @@
       <c r="BM47" s="3"/>
       <c r="BN47" s="3"/>
     </row>
-    <row r="48" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3933,7 +3949,7 @@
       <c r="BM48" s="3"/>
       <c r="BN48" s="3"/>
     </row>
-    <row r="49" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3999,7 +4015,7 @@
       <c r="BM49" s="3"/>
       <c r="BN49" s="3"/>
     </row>
-    <row r="50" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4065,7 +4081,7 @@
       <c r="BM50" s="3"/>
       <c r="BN50" s="3"/>
     </row>
-    <row r="51" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4131,7 +4147,7 @@
       <c r="BM51" s="3"/>
       <c r="BN51" s="3"/>
     </row>
-    <row r="52" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4197,7 +4213,7 @@
       <c r="BM52" s="3"/>
       <c r="BN52" s="3"/>
     </row>
-    <row r="53" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4263,7 +4279,7 @@
       <c r="BM53" s="3"/>
       <c r="BN53" s="3"/>
     </row>
-    <row r="54" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4329,7 +4345,7 @@
       <c r="BM54" s="3"/>
       <c r="BN54" s="3"/>
     </row>
-    <row r="55" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4395,7 +4411,7 @@
       <c r="BM55" s="3"/>
       <c r="BN55" s="3"/>
     </row>
-    <row r="56" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4461,7 +4477,7 @@
       <c r="BM56" s="3"/>
       <c r="BN56" s="3"/>
     </row>
-    <row r="57" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4527,7 +4543,7 @@
       <c r="BM57" s="3"/>
       <c r="BN57" s="3"/>
     </row>
-    <row r="58" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4593,7 +4609,7 @@
       <c r="BM58" s="3"/>
       <c r="BN58" s="3"/>
     </row>
-    <row r="59" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4659,7 +4675,7 @@
       <c r="BM59" s="3"/>
       <c r="BN59" s="3"/>
     </row>
-    <row r="60" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4725,7 +4741,7 @@
       <c r="BM60" s="3"/>
       <c r="BN60" s="3"/>
     </row>
-    <row r="61" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4791,7 +4807,7 @@
       <c r="BM61" s="3"/>
       <c r="BN61" s="3"/>
     </row>
-    <row r="62" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4857,7 +4873,7 @@
       <c r="BM62" s="3"/>
       <c r="BN62" s="3"/>
     </row>
-    <row r="63" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4923,7 +4939,7 @@
       <c r="BM63" s="3"/>
       <c r="BN63" s="3"/>
     </row>
-    <row r="64" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4989,7 +5005,7 @@
       <c r="BM64" s="3"/>
       <c r="BN64" s="3"/>
     </row>
-    <row r="65" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5055,7 +5071,7 @@
       <c r="BM65" s="3"/>
       <c r="BN65" s="3"/>
     </row>
-    <row r="66" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5121,7 +5137,7 @@
       <c r="BM66" s="3"/>
       <c r="BN66" s="3"/>
     </row>
-    <row r="67" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5187,7 +5203,7 @@
       <c r="BM67" s="3"/>
       <c r="BN67" s="3"/>
     </row>
-    <row r="68" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5253,7 +5269,7 @@
       <c r="BM68" s="3"/>
       <c r="BN68" s="3"/>
     </row>
-    <row r="69" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5319,7 +5335,7 @@
       <c r="BM69" s="3"/>
       <c r="BN69" s="3"/>
     </row>
-    <row r="70" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5385,7 +5401,7 @@
       <c r="BM70" s="3"/>
       <c r="BN70" s="3"/>
     </row>
-    <row r="71" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5451,7 +5467,7 @@
       <c r="BM71" s="3"/>
       <c r="BN71" s="3"/>
     </row>
-    <row r="72" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5517,7 +5533,7 @@
       <c r="BM72" s="3"/>
       <c r="BN72" s="3"/>
     </row>
-    <row r="73" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5583,7 +5599,7 @@
       <c r="BM73" s="3"/>
       <c r="BN73" s="3"/>
     </row>
-    <row r="74" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5649,7 +5665,7 @@
       <c r="BM74" s="3"/>
       <c r="BN74" s="3"/>
     </row>
-    <row r="75" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5715,7 +5731,7 @@
       <c r="BM75" s="3"/>
       <c r="BN75" s="3"/>
     </row>
-    <row r="76" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5781,7 +5797,7 @@
       <c r="BM76" s="3"/>
       <c r="BN76" s="3"/>
     </row>
-    <row r="77" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5847,7 +5863,7 @@
       <c r="BM77" s="3"/>
       <c r="BN77" s="3"/>
     </row>
-    <row r="78" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5913,7 +5929,7 @@
       <c r="BM78" s="3"/>
       <c r="BN78" s="3"/>
     </row>
-    <row r="79" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5979,7 +5995,7 @@
       <c r="BM79" s="3"/>
       <c r="BN79" s="3"/>
     </row>
-    <row r="80" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6045,7 +6061,7 @@
       <c r="BM80" s="3"/>
       <c r="BN80" s="3"/>
     </row>
-    <row r="81" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6111,7 +6127,7 @@
       <c r="BM81" s="3"/>
       <c r="BN81" s="3"/>
     </row>
-    <row r="82" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6177,7 +6193,7 @@
       <c r="BM82" s="3"/>
       <c r="BN82" s="3"/>
     </row>
-    <row r="83" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6243,7 +6259,7 @@
       <c r="BM83" s="3"/>
       <c r="BN83" s="3"/>
     </row>
-    <row r="84" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6309,7 +6325,7 @@
       <c r="BM84" s="3"/>
       <c r="BN84" s="3"/>
     </row>
-    <row r="85" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6375,7 +6391,7 @@
       <c r="BM85" s="3"/>
       <c r="BN85" s="3"/>
     </row>
-    <row r="86" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6441,7 +6457,7 @@
       <c r="BM86" s="3"/>
       <c r="BN86" s="3"/>
     </row>
-    <row r="87" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6507,7 +6523,7 @@
       <c r="BM87" s="3"/>
       <c r="BN87" s="3"/>
     </row>
-    <row r="88" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6573,7 +6589,7 @@
       <c r="BM88" s="3"/>
       <c r="BN88" s="3"/>
     </row>
-    <row r="89" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6639,7 +6655,7 @@
       <c r="BM89" s="3"/>
       <c r="BN89" s="3"/>
     </row>
-    <row r="90" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6705,7 +6721,7 @@
       <c r="BM90" s="3"/>
       <c r="BN90" s="3"/>
     </row>
-    <row r="91" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6771,7 +6787,7 @@
       <c r="BM91" s="3"/>
       <c r="BN91" s="3"/>
     </row>
-    <row r="92" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6837,7 +6853,7 @@
       <c r="BM92" s="3"/>
       <c r="BN92" s="3"/>
     </row>
-    <row r="93" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6903,7 +6919,7 @@
       <c r="BM93" s="3"/>
       <c r="BN93" s="3"/>
     </row>
-    <row r="94" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6969,7 +6985,7 @@
       <c r="BM94" s="3"/>
       <c r="BN94" s="3"/>
     </row>
-    <row r="95" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7035,7 +7051,7 @@
       <c r="BM95" s="3"/>
       <c r="BN95" s="3"/>
     </row>
-    <row r="96" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7101,7 +7117,7 @@
       <c r="BM96" s="3"/>
       <c r="BN96" s="3"/>
     </row>
-    <row r="97" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7167,7 +7183,7 @@
       <c r="BM97" s="3"/>
       <c r="BN97" s="3"/>
     </row>
-    <row r="98" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7233,7 +7249,7 @@
       <c r="BM98" s="3"/>
       <c r="BN98" s="3"/>
     </row>
-    <row r="99" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7299,7 +7315,7 @@
       <c r="BM99" s="3"/>
       <c r="BN99" s="3"/>
     </row>
-    <row r="100" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7365,7 +7381,7 @@
       <c r="BM100" s="3"/>
       <c r="BN100" s="3"/>
     </row>
-    <row r="101" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7431,7 +7447,7 @@
       <c r="BM101" s="3"/>
       <c r="BN101" s="3"/>
     </row>
-    <row r="102" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7497,7 +7513,7 @@
       <c r="BM102" s="3"/>
       <c r="BN102" s="3"/>
     </row>
-    <row r="103" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7563,7 +7579,7 @@
       <c r="BM103" s="3"/>
       <c r="BN103" s="3"/>
     </row>
-    <row r="104" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7629,7 +7645,7 @@
       <c r="BM104" s="3"/>
       <c r="BN104" s="3"/>
     </row>
-    <row r="105" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7695,7 +7711,7 @@
       <c r="BM105" s="3"/>
       <c r="BN105" s="3"/>
     </row>
-    <row r="106" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7761,7 +7777,7 @@
       <c r="BM106" s="3"/>
       <c r="BN106" s="3"/>
     </row>
-    <row r="107" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7827,7 +7843,7 @@
       <c r="BM107" s="3"/>
       <c r="BN107" s="3"/>
     </row>
-    <row r="108" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7893,7 +7909,7 @@
       <c r="BM108" s="3"/>
       <c r="BN108" s="3"/>
     </row>
-    <row r="109" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7959,7 +7975,7 @@
       <c r="BM109" s="3"/>
       <c r="BN109" s="3"/>
     </row>
-    <row r="110" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8025,7 +8041,7 @@
       <c r="BM110" s="3"/>
       <c r="BN110" s="3"/>
     </row>
-    <row r="111" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8091,7 +8107,7 @@
       <c r="BM111" s="3"/>
       <c r="BN111" s="3"/>
     </row>
-    <row r="112" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8157,7 +8173,7 @@
       <c r="BM112" s="3"/>
       <c r="BN112" s="3"/>
     </row>
-    <row r="113" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8223,7 +8239,7 @@
       <c r="BM113" s="3"/>
       <c r="BN113" s="3"/>
     </row>
-    <row r="114" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8289,7 +8305,7 @@
       <c r="BM114" s="3"/>
       <c r="BN114" s="3"/>
     </row>
-    <row r="115" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8355,7 +8371,7 @@
       <c r="BM115" s="3"/>
       <c r="BN115" s="3"/>
     </row>
-    <row r="116" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8421,7 +8437,7 @@
       <c r="BM116" s="3"/>
       <c r="BN116" s="3"/>
     </row>
-    <row r="117" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8487,7 +8503,7 @@
       <c r="BM117" s="3"/>
       <c r="BN117" s="3"/>
     </row>
-    <row r="118" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8553,7 +8569,7 @@
       <c r="BM118" s="3"/>
       <c r="BN118" s="3"/>
     </row>
-    <row r="119" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8619,7 +8635,7 @@
       <c r="BM119" s="3"/>
       <c r="BN119" s="3"/>
     </row>
-    <row r="120" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8685,7 +8701,7 @@
       <c r="BM120" s="3"/>
       <c r="BN120" s="3"/>
     </row>
-    <row r="121" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8751,7 +8767,7 @@
       <c r="BM121" s="3"/>
       <c r="BN121" s="3"/>
     </row>
-    <row r="122" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8817,7 +8833,7 @@
       <c r="BM122" s="3"/>
       <c r="BN122" s="3"/>
     </row>
-    <row r="123" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8883,7 +8899,7 @@
       <c r="BM123" s="3"/>
       <c r="BN123" s="3"/>
     </row>
-    <row r="124" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8949,7 +8965,7 @@
       <c r="BM124" s="3"/>
       <c r="BN124" s="3"/>
     </row>
-    <row r="125" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9015,7 +9031,7 @@
       <c r="BM125" s="3"/>
       <c r="BN125" s="3"/>
     </row>
-    <row r="126" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9081,7 +9097,7 @@
       <c r="BM126" s="3"/>
       <c r="BN126" s="3"/>
     </row>
-    <row r="127" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9147,7 +9163,7 @@
       <c r="BM127" s="3"/>
       <c r="BN127" s="3"/>
     </row>
-    <row r="128" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9213,7 +9229,7 @@
       <c r="BM128" s="3"/>
       <c r="BN128" s="3"/>
     </row>
-    <row r="129" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9279,7 +9295,7 @@
       <c r="BM129" s="3"/>
       <c r="BN129" s="3"/>
     </row>
-    <row r="130" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9345,7 +9361,7 @@
       <c r="BM130" s="3"/>
       <c r="BN130" s="3"/>
     </row>
-    <row r="131" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9411,7 +9427,7 @@
       <c r="BM131" s="3"/>
       <c r="BN131" s="3"/>
     </row>
-    <row r="132" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9477,7 +9493,7 @@
       <c r="BM132" s="3"/>
       <c r="BN132" s="3"/>
     </row>
-    <row r="133" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9543,7 +9559,7 @@
       <c r="BM133" s="3"/>
       <c r="BN133" s="3"/>
     </row>
-    <row r="134" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9609,7 +9625,7 @@
       <c r="BM134" s="3"/>
       <c r="BN134" s="3"/>
     </row>
-    <row r="135" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9675,7 +9691,7 @@
       <c r="BM135" s="3"/>
       <c r="BN135" s="3"/>
     </row>
-    <row r="136" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9741,7 +9757,7 @@
       <c r="BM136" s="3"/>
       <c r="BN136" s="3"/>
     </row>
-    <row r="137" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9807,7 +9823,7 @@
       <c r="BM137" s="3"/>
       <c r="BN137" s="3"/>
     </row>
-    <row r="138" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9873,7 +9889,7 @@
       <c r="BM138" s="3"/>
       <c r="BN138" s="3"/>
     </row>
-    <row r="139" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9939,7 +9955,7 @@
       <c r="BM139" s="3"/>
       <c r="BN139" s="3"/>
     </row>
-    <row r="140" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10005,7 +10021,7 @@
       <c r="BM140" s="3"/>
       <c r="BN140" s="3"/>
     </row>
-    <row r="141" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10071,7 +10087,7 @@
       <c r="BM141" s="3"/>
       <c r="BN141" s="3"/>
     </row>
-    <row r="142" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10137,7 +10153,7 @@
       <c r="BM142" s="3"/>
       <c r="BN142" s="3"/>
     </row>
-    <row r="143" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10203,7 +10219,7 @@
       <c r="BM143" s="3"/>
       <c r="BN143" s="3"/>
     </row>
-    <row r="144" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10269,7 +10285,7 @@
       <c r="BM144" s="3"/>
       <c r="BN144" s="3"/>
     </row>
-    <row r="145" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10335,7 +10351,7 @@
       <c r="BM145" s="3"/>
       <c r="BN145" s="3"/>
     </row>
-    <row r="146" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10401,7 +10417,7 @@
       <c r="BM146" s="3"/>
       <c r="BN146" s="3"/>
     </row>
-    <row r="147" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10467,7 +10483,7 @@
       <c r="BM147" s="3"/>
       <c r="BN147" s="3"/>
     </row>
-    <row r="148" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10533,7 +10549,7 @@
       <c r="BM148" s="3"/>
       <c r="BN148" s="3"/>
     </row>
-    <row r="149" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10599,7 +10615,7 @@
       <c r="BM149" s="3"/>
       <c r="BN149" s="3"/>
     </row>
-    <row r="150" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10665,7 +10681,7 @@
       <c r="BM150" s="3"/>
       <c r="BN150" s="3"/>
     </row>
-    <row r="151" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10731,7 +10747,7 @@
       <c r="BM151" s="3"/>
       <c r="BN151" s="3"/>
     </row>
-    <row r="152" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10797,7 +10813,7 @@
       <c r="BM152" s="3"/>
       <c r="BN152" s="3"/>
     </row>
-    <row r="153" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10863,7 +10879,7 @@
       <c r="BM153" s="3"/>
       <c r="BN153" s="3"/>
     </row>
-    <row r="154" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10929,7 +10945,7 @@
       <c r="BM154" s="3"/>
       <c r="BN154" s="3"/>
     </row>
-    <row r="155" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10995,7 +11011,7 @@
       <c r="BM155" s="3"/>
       <c r="BN155" s="3"/>
     </row>
-    <row r="156" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11061,7 +11077,7 @@
       <c r="BM156" s="3"/>
       <c r="BN156" s="3"/>
     </row>
-    <row r="157" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11127,7 +11143,7 @@
       <c r="BM157" s="3"/>
       <c r="BN157" s="3"/>
     </row>
-    <row r="158" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11193,7 +11209,7 @@
       <c r="BM158" s="3"/>
       <c r="BN158" s="3"/>
     </row>
-    <row r="159" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11259,7 +11275,7 @@
       <c r="BM159" s="3"/>
       <c r="BN159" s="3"/>
     </row>
-    <row r="160" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11325,7 +11341,7 @@
       <c r="BM160" s="3"/>
       <c r="BN160" s="3"/>
     </row>
-    <row r="161" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11391,7 +11407,7 @@
       <c r="BM161" s="3"/>
       <c r="BN161" s="3"/>
     </row>
-    <row r="162" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11457,7 +11473,7 @@
       <c r="BM162" s="3"/>
       <c r="BN162" s="3"/>
     </row>
-    <row r="163" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11523,7 +11539,7 @@
       <c r="BM163" s="3"/>
       <c r="BN163" s="3"/>
     </row>
-    <row r="164" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11589,7 +11605,7 @@
       <c r="BM164" s="3"/>
       <c r="BN164" s="3"/>
     </row>
-    <row r="165" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11655,7 +11671,7 @@
       <c r="BM165" s="3"/>
       <c r="BN165" s="3"/>
     </row>
-    <row r="166" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11721,7 +11737,7 @@
       <c r="BM166" s="3"/>
       <c r="BN166" s="3"/>
     </row>
-    <row r="167" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11787,7 +11803,7 @@
       <c r="BM167" s="3"/>
       <c r="BN167" s="3"/>
     </row>
-    <row r="168" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11853,7 +11869,7 @@
       <c r="BM168" s="3"/>
       <c r="BN168" s="3"/>
     </row>
-    <row r="169" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11919,7 +11935,7 @@
       <c r="BM169" s="3"/>
       <c r="BN169" s="3"/>
     </row>
-    <row r="170" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11985,7 +12001,7 @@
       <c r="BM170" s="3"/>
       <c r="BN170" s="3"/>
     </row>
-    <row r="171" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12051,7 +12067,7 @@
       <c r="BM171" s="3"/>
       <c r="BN171" s="3"/>
     </row>
-    <row r="172" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12117,7 +12133,7 @@
       <c r="BM172" s="3"/>
       <c r="BN172" s="3"/>
     </row>
-    <row r="173" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12183,7 +12199,7 @@
       <c r="BM173" s="3"/>
       <c r="BN173" s="3"/>
     </row>
-    <row r="174" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -12249,7 +12265,7 @@
       <c r="BM174" s="3"/>
       <c r="BN174" s="3"/>
     </row>
-    <row r="175" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12315,7 +12331,7 @@
       <c r="BM175" s="3"/>
       <c r="BN175" s="3"/>
     </row>
-    <row r="176" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -12381,7 +12397,7 @@
       <c r="BM176" s="3"/>
       <c r="BN176" s="3"/>
     </row>
-    <row r="177" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -12447,7 +12463,7 @@
       <c r="BM177" s="3"/>
       <c r="BN177" s="3"/>
     </row>
-    <row r="178" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12513,7 +12529,7 @@
       <c r="BM178" s="3"/>
       <c r="BN178" s="3"/>
     </row>
-    <row r="179" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12579,7 +12595,7 @@
       <c r="BM179" s="3"/>
       <c r="BN179" s="3"/>
     </row>
-    <row r="180" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12645,7 +12661,7 @@
       <c r="BM180" s="3"/>
       <c r="BN180" s="3"/>
     </row>
-    <row r="181" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12711,7 +12727,7 @@
       <c r="BM181" s="3"/>
       <c r="BN181" s="3"/>
     </row>
-    <row r="182" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12777,7 +12793,7 @@
       <c r="BM182" s="3"/>
       <c r="BN182" s="3"/>
     </row>
-    <row r="183" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12843,7 +12859,7 @@
       <c r="BM183" s="3"/>
       <c r="BN183" s="3"/>
     </row>
-    <row r="184" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12909,7 +12925,7 @@
       <c r="BM184" s="3"/>
       <c r="BN184" s="3"/>
     </row>
-    <row r="185" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12975,7 +12991,7 @@
       <c r="BM185" s="3"/>
       <c r="BN185" s="3"/>
     </row>
-    <row r="186" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13041,7 +13057,7 @@
       <c r="BM186" s="3"/>
       <c r="BN186" s="3"/>
     </row>
-    <row r="187" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13107,7 +13123,7 @@
       <c r="BM187" s="3"/>
       <c r="BN187" s="3"/>
     </row>
-    <row r="188" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13173,7 +13189,7 @@
       <c r="BM188" s="3"/>
       <c r="BN188" s="3"/>
     </row>
-    <row r="189" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13239,7 +13255,7 @@
       <c r="BM189" s="3"/>
       <c r="BN189" s="3"/>
     </row>
-    <row r="190" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13305,7 +13321,7 @@
       <c r="BM190" s="3"/>
       <c r="BN190" s="3"/>
     </row>
-    <row r="191" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13371,7 +13387,7 @@
       <c r="BM191" s="3"/>
       <c r="BN191" s="3"/>
     </row>
-    <row r="192" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -13437,7 +13453,7 @@
       <c r="BM192" s="3"/>
       <c r="BN192" s="3"/>
     </row>
-    <row r="193" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -13503,7 +13519,7 @@
       <c r="BM193" s="3"/>
       <c r="BN193" s="3"/>
     </row>
-    <row r="194" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -13569,7 +13585,7 @@
       <c r="BM194" s="3"/>
       <c r="BN194" s="3"/>
     </row>
-    <row r="195" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13635,7 +13651,7 @@
       <c r="BM195" s="3"/>
       <c r="BN195" s="3"/>
     </row>
-    <row r="196" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13701,7 +13717,7 @@
       <c r="BM196" s="3"/>
       <c r="BN196" s="3"/>
     </row>
-    <row r="197" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13767,7 +13783,7 @@
       <c r="BM197" s="3"/>
       <c r="BN197" s="3"/>
     </row>
-    <row r="198" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13833,7 +13849,7 @@
       <c r="BM198" s="3"/>
       <c r="BN198" s="3"/>
     </row>
-    <row r="199" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13899,7 +13915,7 @@
       <c r="BM199" s="3"/>
       <c r="BN199" s="3"/>
     </row>
-    <row r="200" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13965,7 +13981,7 @@
       <c r="BM200" s="3"/>
       <c r="BN200" s="3"/>
     </row>
-    <row r="201" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14031,7 +14047,7 @@
       <c r="BM201" s="3"/>
       <c r="BN201" s="3"/>
     </row>
-    <row r="202" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14097,7 +14113,7 @@
       <c r="BM202" s="3"/>
       <c r="BN202" s="3"/>
     </row>
-    <row r="203" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -14163,7 +14179,7 @@
       <c r="BM203" s="3"/>
       <c r="BN203" s="3"/>
     </row>
-    <row r="204" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14229,7 +14245,7 @@
       <c r="BM204" s="3"/>
       <c r="BN204" s="3"/>
     </row>
-    <row r="205" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14295,7 +14311,7 @@
       <c r="BM205" s="3"/>
       <c r="BN205" s="3"/>
     </row>
-    <row r="206" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -14361,7 +14377,7 @@
       <c r="BM206" s="3"/>
       <c r="BN206" s="3"/>
     </row>
-    <row r="207" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -14427,7 +14443,7 @@
       <c r="BM207" s="3"/>
       <c r="BN207" s="3"/>
     </row>
-    <row r="208" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -14493,7 +14509,7 @@
       <c r="BM208" s="3"/>
       <c r="BN208" s="3"/>
     </row>
-    <row r="209" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -14559,7 +14575,7 @@
       <c r="BM209" s="3"/>
       <c r="BN209" s="3"/>
     </row>
-    <row r="210" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
